--- a/user-data/oda-GB/oda-GB.xlsx
+++ b/user-data/oda-GB/oda-GB.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Description: Gross official development assistance from United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>
